--- a/results/t0020/diff_pval_formatted.xlsx
+++ b/results/t0020/diff_pval_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihzhang/Documents/GitHub/Municipal-Boundary-Changes/results/t0020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2FBE2640-36BD-864D-BE6A-6441CE503D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE829B-41C8-A043-A9AA-93576E892737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="500" windowWidth="22340" windowHeight="14560" activeTab="1"/>
+    <workbookView xWindow="6460" yWindow="500" windowWidth="22340" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diff_pval_formatted" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
-    <t>Mean, Pre-Shelby County (2007-2013)</t>
-  </si>
-  <si>
-    <t>Mean, Post-Shelby County (2014-2020)</t>
-  </si>
-  <si>
     <t>Covered</t>
-  </si>
-  <si>
-    <t>Uncovered</t>
   </si>
   <si>
     <t>Difference</t>
@@ -328,16 +319,71 @@
   <si>
     <t>143**</t>
   </si>
+  <si>
+    <r>
+      <t>Mean, Pre-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shelby County</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (2007-2013)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mean, Post-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shelby County</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (2014-2020)</t>
+    </r>
+  </si>
+  <si>
+    <t>Not Covered</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,6 +540,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -870,12 +924,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -897,11 +948,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -910,20 +960,17 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -940,6 +987,12 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,11 +1353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,604 +1367,604 @@
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11">
+        <v>12328</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3529</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11">
+        <v>12328</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3529</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B5" s="6">
+        <v>0.25403568394222598</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.20095732597760799</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.12206173888416801</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.5164692519876595E-2</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13">
-        <v>12328</v>
-      </c>
-      <c r="C3" s="13">
-        <v>3529</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="13">
-        <v>12328</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3529</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.25403568394222598</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.20095732597760799</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="B6" s="6">
+        <v>3.9082412914188597E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.5979230894045101E-3</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.3506088926649599E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.2187246470874497E-3</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.12206173888416801</v>
-      </c>
-      <c r="F5" s="7">
-        <v>9.5164692519876595E-2</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3.9082412914188597E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5.5979230894045101E-3</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.3506088926649599E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.2187246470874497E-3</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.11781365052393</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.121126074963491</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" ref="D7" si="0">B7-C7</f>
         <v>-3.3124244395609931E-3</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>4.2197677711696399E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>4.1051435988966399E-2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" ref="G7" si="1">E7-F7</f>
         <v>1.1462417227300001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="13">
         <v>272</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>195</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="D9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="14">
         <v>159</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>152</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>77</v>
+      <c r="G9" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13">
         <v>1098</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>131</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="14">
+        <v>368</v>
+      </c>
+      <c r="F10" s="14">
+        <v>225</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="16">
-        <v>368</v>
-      </c>
-      <c r="F10" s="16">
-        <v>225</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>11047.0356839422</v>
+      </c>
+      <c r="C13" s="20">
+        <v>8101.6987668343299</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11909.670914754999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8616.5830764238199</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20">
+        <v>930.976180700084</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1234.96185850747</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7">
+        <v>855.751576493882</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1150.43330039939</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.22200375733153399</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.4459937475933802E-2</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.230223630856737</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.71463784251502E-2</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="23">
-        <v>11047.0356839422</v>
-      </c>
-      <c r="C13" s="23">
-        <v>8101.6987668343299</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="8">
-        <v>11909.670914754999</v>
-      </c>
-      <c r="F13" s="8">
-        <v>8616.5830764238199</v>
-      </c>
-      <c r="G13" s="26" t="s">
+      <c r="B16" s="6">
+        <v>0.14541250956916299</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.3906594222361403E-2</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.166871685683917</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.11348584690793399</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="23">
-        <v>930.976180700084</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1234.96185850747</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="8">
-        <v>855.751576493882</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1150.43330039939</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="B17" s="6">
+        <v>0.200010903301586</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.144982460266458</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.20935876678319201</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.15700233344097</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.25040503308081502</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.107151015625573</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.27558798242966598</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.15524125827900401</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.22200375733153399</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3.4459937475933802E-2</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.230223630856737</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3.71463784251502E-2</v>
-      </c>
-      <c r="G15" s="25" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.17665810056526299</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.13257298441082899</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.185761398776913</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.150948137810896</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.14541250956916299</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9.3906594222361403E-2</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.166871685683917</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.11348584690793399</v>
-      </c>
-      <c r="G16" s="25" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.691514805318731</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.74038492109259502</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.65969655701554197</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.71105039056254205</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.200010903301586</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.144982460266458</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.20935876678319201</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.15700233344097</v>
-      </c>
-      <c r="G17" s="25" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="19">
+        <v>129159.360016992</v>
+      </c>
+      <c r="C21" s="19">
+        <v>144599.87138597801</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7">
+        <v>123444.657123572</v>
+      </c>
+      <c r="F21" s="7">
+        <v>132202.73040862099</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19">
+        <v>48101.816212121201</v>
+      </c>
+      <c r="C22" s="19">
+        <v>52418.968598355699</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7">
+        <v>46557.751406117197</v>
+      </c>
+      <c r="F22" s="7">
+        <v>51541.692891989798</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.64712546020957196</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.61504137595326902</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.64061172472387395</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.61301314294986198</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.165756212644429</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2.0274968121515899E-2</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.155010636323867</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1.9483059895855501E-2</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.14664525418395899</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7.4059515606246004E-2</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.18173287770718899</v>
+      </c>
+      <c r="F26" s="6">
+        <v>9.8033030740427102E-2</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.25040503308081502</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.107151015625573</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.27558798242966598</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.15524125827900401</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.17665810056526299</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.13257298441082899</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.185761398776913</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.150948137810896</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.691514805318731</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.74038492109259502</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.65969655701554197</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.71105039056254205</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22">
-        <v>129159.360016992</v>
-      </c>
-      <c r="C21" s="22">
-        <v>144599.87138597801</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="8">
-        <v>123444.657123572</v>
-      </c>
-      <c r="F21" s="8">
-        <v>132202.73040862099</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B27" s="6">
+        <v>0.68744662158111802</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.732972364354462</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.75990405482159495</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.79465677348138297</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="22">
-        <v>48101.816212121201</v>
-      </c>
-      <c r="C22" s="22">
-        <v>52418.968598355699</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="8">
-        <v>46557.751406117197</v>
-      </c>
-      <c r="F22" s="8">
-        <v>51541.692891989798</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.64712546020957196</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.61504137595326902</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.64061172472387395</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.61301314294986198</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.165756212644429</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2.0274968121515899E-2</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.155010636323867</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1.9483059895855501E-2</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.14664525418395899</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7.4059515606246004E-2</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.18173287770718899</v>
-      </c>
-      <c r="F26" s="7">
-        <v>9.8033030740427102E-2</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.68744662158111802</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0.732972364354462</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.75990405482159495</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.79465677348138297</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>0.26758391277718102</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>0.27021779735117202</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <f t="shared" ref="D28" si="2">B28-C28</f>
         <v>-2.6338845739909966E-3</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>0.30198442902963801</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>0.33564010723357801</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>73</v>
+      <c r="G28" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6">
         <v>0.14765432155351299</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>0.112144636518257</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="6">
         <v>0.200398240304516</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>0.16005679670673301</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>74</v>
+      <c r="G29" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1925,7 +1978,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1945,69 +1998,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>32</v>
+      <c r="A1" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>13184</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="A4" s="28"/>
+      <c r="B4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="17">
         <v>177</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>2496</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f xml:space="preserve"> (D4/(D4+C4))*100</f>
         <v>93.378226711560046</v>
       </c>
@@ -2020,56 +2074,56 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>39</v>
+      <c r="A6" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="30"/>
+      <c r="C6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>12483</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="A9" s="28"/>
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="17">
         <v>869</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>2505</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f xml:space="preserve"> (D9/(D9+C9))*100</f>
         <v>74.244220509780675</v>
       </c>
@@ -2082,68 +2136,68 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
+      <c r="A11" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>14253</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="A14" s="28"/>
+      <c r="B14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="17">
         <v>1242</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>362</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f xml:space="preserve"> (D14/(D14+C14))*100</f>
         <v>22.568578553615957</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
